--- a/data/05_input/zm.ca20a.xlsx
+++ b/data/05_input/zm.ca20a.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Containers/com.panic.transmit.mas/Data/Library/Caches/Transmit/345E1705-8AFB-4723-8AB6-E3D40085EACC/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/barn/data/06_local_list_excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Containers/com.panic.transmit.mas/Data/Library/Caches/Transmit/E969E20D-6029-43C6-8500-CF22FE371F8F/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/barn/data/05_input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DDCF320-ED9E-D04A-957A-4C4B9BBF0083}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43AF7037-033F-4B47-ACFF-E33E4D2C350A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17360" yWindow="13740" windowWidth="13900" windowHeight="11260" xr2:uid="{67760308-83C7-244E-9309-67C566F6D356}"/>
+    <workbookView xWindow="10260" yWindow="3960" windowWidth="22540" windowHeight="14060" xr2:uid="{67760308-83C7-244E-9309-67C566F6D356}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="114">
   <si>
     <t>SampleID</t>
   </si>
@@ -66,82 +66,307 @@
     <t>control</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/novaseq/191230_A00223_0294_BHGH7NDRXX/Springer_Project_067/BN1A_S1_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/novaseq/191230_A00223_0294_BHGH7NDRXX/Springer_Project_067/BN1A_S1_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>BN2</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/novaseq/191230_A00223_0294_BHGH7NDRXX/Springer_Project_067/BN2A_S2_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/novaseq/191230_A00223_0294_BHGH7NDRXX/Springer_Project_067/BN2A_S2_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>MN1</t>
   </si>
   <si>
     <t>Mo17</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/novaseq/191230_A00223_0294_BHGH7NDRXX/Springer_Project_067/MN1A_S3_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/novaseq/191230_A00223_0294_BHGH7NDRXX/Springer_Project_067/MN1A_S3_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>MN2</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/novaseq/191230_A00223_0294_BHGH7NDRXX/Springer_Project_067/MN2A_S4_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/novaseq/191230_A00223_0294_BHGH7NDRXX/Springer_Project_067/MN2A_S4_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>ON1</t>
   </si>
   <si>
     <t>Oh43</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/novaseq/191230_A00223_0294_BHGH7NDRXX/Springer_Project_067/ON1A_S5_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/novaseq/191230_A00223_0294_BHGH7NDRXX/Springer_Project_067/ON1A_S5_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>ON2</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/novaseq/191230_A00223_0294_BHGH7NDRXX/Springer_Project_067/ON2A_S6_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/novaseq/191230_A00223_0294_BHGH7NDRXX/Springer_Project_067/ON2A_S6_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>WN1</t>
   </si>
   <si>
     <t>W22</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/novaseq/191230_A00223_0294_BHGH7NDRXX/Springer_Project_067/WN1A_S7_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/novaseq/191230_A00223_0294_BHGH7NDRXX/Springer_Project_067/WN1A_S7_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>WN2</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/novaseq/191230_A00223_0294_BHGH7NDRXX/Springer_Project_067/WN2A_S8_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/novaseq/191230_A00223_0294_BHGH7NDRXX/Springer_Project_067/WN2A_S8_R2_001.fastq.gz</t>
+    <t>PE</t>
+  </si>
+  <si>
+    <t>191230_A00223_0294_BHGH7NDRXX/BN1A_S1_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>191230_A00223_0294_BHGH7NDRXX/BN1A_S1_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>191230_A00223_0294_BHGH7NDRXX/BN2A_S2_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>191230_A00223_0294_BHGH7NDRXX/BN2A_S2_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>191230_A00223_0294_BHGH7NDRXX/MN1A_S3_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>191230_A00223_0294_BHGH7NDRXX/MN1A_S3_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>191230_A00223_0294_BHGH7NDRXX/MN2A_S4_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>191230_A00223_0294_BHGH7NDRXX/MN2A_S4_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>191230_A00223_0294_BHGH7NDRXX/ON1A_S5_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>191230_A00223_0294_BHGH7NDRXX/ON1A_S5_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>191230_A00223_0294_BHGH7NDRXX/ON2A_S6_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>191230_A00223_0294_BHGH7NDRXX/ON2A_S6_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>191230_A00223_0294_BHGH7NDRXX/WN1A_S7_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>191230_A00223_0294_BHGH7NDRXX/WN1A_S7_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>191230_A00223_0294_BHGH7NDRXX/WN2A_S8_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>191230_A00223_0294_BHGH7NDRXX/WN2A_S8_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200213_A00223_0321_AHJM7JDRXX/BN1A_S1_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200213_A00223_0321_AHJM7JDRXX/BN2A_S2_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200213_A00223_0321_AHJM7JDRXX/MN1A_S3_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200213_A00223_0321_AHJM7JDRXX/MN2A_S4_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200213_A00223_0321_AHJM7JDRXX/ON1A_S5_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200213_A00223_0321_AHJM7JDRXX/ON2A_S6_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200213_A00223_0321_AHJM7JDRXX/WN1A_S7_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200213_A00223_0321_AHJM7JDRXX/WN2A_S8_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200213_A00223_0321_AHJM7JDRXX/BN1A_S1_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200213_A00223_0321_AHJM7JDRXX/BN2A_S2_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200213_A00223_0321_AHJM7JDRXX/MN1A_S3_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200213_A00223_0321_AHJM7JDRXX/MN2A_S4_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200213_A00223_0321_AHJM7JDRXX/ON1A_S5_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200213_A00223_0321_AHJM7JDRXX/ON2A_S6_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200213_A00223_0321_AHJM7JDRXX/WN1A_S7_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200213_A00223_0321_AHJM7JDRXX/WN2A_S8_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>BN1a</t>
+  </si>
+  <si>
+    <t>BN2a</t>
+  </si>
+  <si>
+    <t>MN1a</t>
+  </si>
+  <si>
+    <t>MN2a</t>
+  </si>
+  <si>
+    <t>ON1a</t>
+  </si>
+  <si>
+    <t>ON2a</t>
+  </si>
+  <si>
+    <t>WN1a</t>
+  </si>
+  <si>
+    <t>WN2a</t>
+  </si>
+  <si>
+    <t>200317_A00223_0340_BHKJYNDRXX/BH4A_S1_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200317_A00223_0340_BHKJYNDRXX/BH5A_S2_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200317_A00223_0340_BHKJYNDRXX/MH4A_S3_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200317_A00223_0340_BHKJYNDRXX/MH5A_S4_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200317_A00223_0340_BHKJYNDRXX/OH1A_S5_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200317_A00223_0340_BHKJYNDRXX/OH5A_S6_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200317_A00223_0340_BHKJYNDRXX/WH4A_S7_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200317_A00223_0340_BHKJYNDRXX/WH5A_S8_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200317_A00223_0340_BHKJYNDRXX/BH4A_S1_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200317_A00223_0340_BHKJYNDRXX/BH5A_S2_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200317_A00223_0340_BHKJYNDRXX/MH4A_S3_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200317_A00223_0340_BHKJYNDRXX/MH5A_S4_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200317_A00223_0340_BHKJYNDRXX/OH1A_S5_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200317_A00223_0340_BHKJYNDRXX/OH5A_S6_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200317_A00223_0340_BHKJYNDRXX/WH4A_S7_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200317_A00223_0340_BHKJYNDRXX/WH5A_S8_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>OH1</t>
+  </si>
+  <si>
+    <t>heat</t>
+  </si>
+  <si>
+    <t>BH4</t>
+  </si>
+  <si>
+    <t>BH5</t>
+  </si>
+  <si>
+    <t>MH4</t>
+  </si>
+  <si>
+    <t>MH5</t>
+  </si>
+  <si>
+    <t>OH5</t>
+  </si>
+  <si>
+    <t>WH4</t>
+  </si>
+  <si>
+    <t>WH5</t>
+  </si>
+  <si>
+    <t>BC4</t>
+  </si>
+  <si>
+    <t>BC5</t>
+  </si>
+  <si>
+    <t>MC1</t>
+  </si>
+  <si>
+    <t>MC5</t>
+  </si>
+  <si>
+    <t>OC2</t>
+  </si>
+  <si>
+    <t>OC5</t>
+  </si>
+  <si>
+    <t>WC1</t>
+  </si>
+  <si>
+    <t>WC5</t>
+  </si>
+  <si>
+    <t>cold</t>
+  </si>
+  <si>
+    <t>200317_A00223_0340_BHKJYNDRXXb/BC4A_S12_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200317_A00223_0340_BHKJYNDRXXb/BC4A_S12_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200317_A00223_0340_BHKJYNDRXXb/BC5A_S13_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200317_A00223_0340_BHKJYNDRXXb/BC5A_S13_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200317_A00223_0340_BHKJYNDRXXb/MC1A_S9_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200317_A00223_0340_BHKJYNDRXXb/MC1A_S9_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200317_A00223_0340_BHKJYNDRXXb/MC5A_S14_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200317_A00223_0340_BHKJYNDRXXb/MC5A_S14_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200317_A00223_0340_BHKJYNDRXXb/OC2A_S11_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200317_A00223_0340_BHKJYNDRXXb/OC2A_S11_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200317_A00223_0340_BHKJYNDRXXb/OC5A_S15_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200317_A00223_0340_BHKJYNDRXXb/OC5A_S15_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200317_A00223_0340_BHKJYNDRXXb/WC1A_S10_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200317_A00223_0340_BHKJYNDRXXb/WC1A_S10_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200317_A00223_0340_BHKJYNDRXXb/WC5A_S16_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200317_A00223_0340_BHKJYNDRXXb/WC5A_S16_R2_001.fastq.gz</t>
   </si>
 </sst>
 </file>
@@ -493,11 +718,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04FFD014-A071-C843-B0EC-9B05A4E70C0E}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -550,19 +775,19 @@
       <c r="E2">
         <v>1</v>
       </c>
-      <c r="F2" t="b">
-        <v>1</v>
+      <c r="F2" t="s">
+        <v>23</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="I2" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
@@ -576,25 +801,25 @@
       <c r="E3">
         <v>2</v>
       </c>
-      <c r="F3" t="b">
-        <v>1</v>
+      <c r="F3" t="s">
+        <v>23</v>
       </c>
       <c r="H3" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I3" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
@@ -602,25 +827,25 @@
       <c r="E4">
         <v>1</v>
       </c>
-      <c r="F4" t="b">
-        <v>1</v>
+      <c r="F4" t="s">
+        <v>23</v>
       </c>
       <c r="H4" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="I4" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -628,25 +853,25 @@
       <c r="E5">
         <v>2</v>
       </c>
-      <c r="F5" t="b">
-        <v>1</v>
+      <c r="F5" t="s">
+        <v>23</v>
       </c>
       <c r="H5" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="I5" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
         <v>12</v>
@@ -654,25 +879,25 @@
       <c r="E6">
         <v>1</v>
       </c>
-      <c r="F6" t="b">
-        <v>1</v>
+      <c r="F6" t="s">
+        <v>23</v>
       </c>
       <c r="H6" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I6" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
@@ -680,25 +905,25 @@
       <c r="E7">
         <v>2</v>
       </c>
-      <c r="F7" t="b">
-        <v>1</v>
+      <c r="F7" t="s">
+        <v>23</v>
       </c>
       <c r="H7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="I7" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
@@ -706,25 +931,25 @@
       <c r="E8">
         <v>1</v>
       </c>
-      <c r="F8" t="b">
-        <v>1</v>
+      <c r="F8" t="s">
+        <v>23</v>
       </c>
       <c r="H8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
@@ -732,17 +957,642 @@
       <c r="E9">
         <v>2</v>
       </c>
-      <c r="F9" t="b">
-        <v>1</v>
+      <c r="F9" t="s">
+        <v>23</v>
       </c>
       <c r="H9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I9" t="s">
-        <v>38</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" t="s">
+        <v>40</v>
+      </c>
+      <c r="I10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" t="s">
+        <v>42</v>
+      </c>
+      <c r="I12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" t="s">
+        <v>43</v>
+      </c>
+      <c r="I13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" t="s">
+        <v>44</v>
+      </c>
+      <c r="I14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" t="s">
+        <v>45</v>
+      </c>
+      <c r="I15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>82</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" t="s">
+        <v>81</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" t="s">
+        <v>64</v>
+      </c>
+      <c r="I18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>83</v>
+      </c>
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" t="s">
+        <v>81</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19" t="s">
+        <v>23</v>
+      </c>
+      <c r="H19" t="s">
+        <v>65</v>
+      </c>
+      <c r="I19" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>84</v>
+      </c>
+      <c r="B20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" t="s">
+        <v>81</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20" t="s">
+        <v>23</v>
+      </c>
+      <c r="H20" t="s">
+        <v>66</v>
+      </c>
+      <c r="I20" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>85</v>
+      </c>
+      <c r="B21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" t="s">
+        <v>81</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21" t="s">
+        <v>23</v>
+      </c>
+      <c r="H21" t="s">
+        <v>67</v>
+      </c>
+      <c r="I21" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>80</v>
+      </c>
+      <c r="B22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" t="s">
+        <v>81</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22" t="s">
+        <v>23</v>
+      </c>
+      <c r="H22" t="s">
+        <v>68</v>
+      </c>
+      <c r="I22" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>86</v>
+      </c>
+      <c r="B23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" t="s">
+        <v>81</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23" t="s">
+        <v>23</v>
+      </c>
+      <c r="H23" t="s">
+        <v>69</v>
+      </c>
+      <c r="I23" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>87</v>
+      </c>
+      <c r="B24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" t="s">
+        <v>81</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24" t="s">
+        <v>23</v>
+      </c>
+      <c r="H24" t="s">
+        <v>70</v>
+      </c>
+      <c r="I24" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>88</v>
+      </c>
+      <c r="B25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" t="s">
+        <v>81</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25" t="s">
+        <v>23</v>
+      </c>
+      <c r="H25" t="s">
+        <v>71</v>
+      </c>
+      <c r="I25" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>89</v>
+      </c>
+      <c r="B26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" t="s">
+        <v>97</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26" t="s">
+        <v>23</v>
+      </c>
+      <c r="H26" t="s">
+        <v>98</v>
+      </c>
+      <c r="I26" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>90</v>
+      </c>
+      <c r="B27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" t="s">
+        <v>97</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27" t="s">
+        <v>23</v>
+      </c>
+      <c r="H27" t="s">
+        <v>100</v>
+      </c>
+      <c r="I27" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>91</v>
+      </c>
+      <c r="B28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" t="s">
+        <v>97</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28" t="s">
+        <v>23</v>
+      </c>
+      <c r="H28" t="s">
+        <v>102</v>
+      </c>
+      <c r="I28" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>92</v>
+      </c>
+      <c r="B29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" t="s">
+        <v>97</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29" t="s">
+        <v>23</v>
+      </c>
+      <c r="H29" t="s">
+        <v>104</v>
+      </c>
+      <c r="I29" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>93</v>
+      </c>
+      <c r="B30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" t="s">
+        <v>97</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30" t="s">
+        <v>23</v>
+      </c>
+      <c r="H30" t="s">
+        <v>106</v>
+      </c>
+      <c r="I30" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>94</v>
+      </c>
+      <c r="B31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" t="s">
+        <v>97</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31" t="s">
+        <v>23</v>
+      </c>
+      <c r="H31" t="s">
+        <v>108</v>
+      </c>
+      <c r="I31" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>95</v>
+      </c>
+      <c r="B32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32" t="s">
+        <v>97</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32" t="s">
+        <v>23</v>
+      </c>
+      <c r="H32" t="s">
+        <v>110</v>
+      </c>
+      <c r="I32" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>96</v>
+      </c>
+      <c r="B33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33" t="s">
+        <v>97</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33" t="s">
+        <v>23</v>
+      </c>
+      <c r="H33" t="s">
+        <v>112</v>
+      </c>
+      <c r="I33" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>